--- a/configs/test_cases.xlsx
+++ b/configs/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/august_2025_automation/test_automation_framework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_framework_nov/configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21E12F-22A3-584C-965B-5F633683FA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23E7905-BB0D-8441-B99F-BFC1BAB0BC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{65144EEF-1F90-C947-8815-970505B648B2}"/>
+    <workbookView xWindow="-28800" yWindow="740" windowWidth="28800" windowHeight="16020" xr2:uid="{65144EEF-1F90-C947-8815-970505B648B2}"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>/Users/admin/PycharmProjects/march_2025_automation/input_files/IPL Matches 2008-2020.csv</t>
-  </si>
-  <si>
     <t>/Users/admin/PycharmProjects/march_2025_automation/input_files/IPL Matches 2008-2020_t.csv</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>/Users/admin/PycharmProjects/test_automation_framework_nov/input_files/Contact_info.csv</t>
   </si>
 </sst>
 </file>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713BC9B6-5492-CA4F-A877-3577F5CB424B}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -575,19 +575,19 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -595,28 +595,28 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -625,7 +625,7 @@
         <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -633,98 +633,98 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/configs/test_cases.xlsx
+++ b/configs/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_framework_nov/configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23E7905-BB0D-8441-B99F-BFC1BAB0BC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EACDCBB-A324-864B-BB02-93C3F45A45D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="740" windowWidth="28800" windowHeight="16020" xr2:uid="{65144EEF-1F90-C947-8815-970505B648B2}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>city</t>
   </si>
   <si>
-    <t>/Users/admin/PycharmProjects/march_2025_automation/input_files/Contact_info.csv</t>
-  </si>
-  <si>
     <t>/Users/admin/PycharmProjects/march_2025_automation/input_files/Contact_info_t.csv</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>/Users/admin/PycharmProjects/test_automation_framework_nov/input_files/Contact_info.csv</t>
+  </si>
+  <si>
+    <t>/Users/admin/PycharmProjects/test_automation_framework_nov/input_files/userdata1.parquet</t>
   </si>
 </sst>
 </file>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713BC9B6-5492-CA4F-A877-3577F5CB424B}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -575,19 +575,19 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -595,10 +595,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -625,33 +625,33 @@
         <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -659,72 +659,72 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/configs/test_cases.xlsx
+++ b/configs/test_cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_framework_nov/configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EACDCBB-A324-864B-BB02-93C3F45A45D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B03B567-C8AE-1A48-8A8C-5BC1D68045EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="740" windowWidth="28800" windowHeight="16020" xr2:uid="{65144EEF-1F90-C947-8815-970505B648B2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Identifier</t>
   </si>
@@ -71,18 +71,12 @@
     <t>Y</t>
   </si>
   <si>
-    <t>/Users/admin/PycharmProjects/march_2025_automation/input_files/IPL Matches 2008-2020_t.csv</t>
-  </si>
-  <si>
     <t>CSV</t>
   </si>
   <si>
     <t>city</t>
   </si>
   <si>
-    <t>/Users/admin/PycharmProjects/march_2025_automation/input_files/Contact_info_t.csv</t>
-  </si>
-  <si>
     <t>Identifier,Surname,given_name</t>
   </si>
   <si>
@@ -147,6 +141,18 @@
   </si>
   <si>
     <t>/Users/admin/PycharmProjects/test_automation_framework_nov/input_files/userdata1.parquet</t>
+  </si>
+  <si>
+    <t>/Users/admin/PycharmProjects/test_automation_framework_nov/input_files/IPL Ball-by-Ball 2008-2020.csv</t>
+  </si>
+  <si>
+    <t>/Users/admin/PycharmProjects/test_automation_framework_nov/input_files/Contact_info_s.csv</t>
+  </si>
+  <si>
+    <t>/Users/admin/PycharmProjects/test_automation_framework_nov/input_files/Contact_info_t.csv</t>
+  </si>
+  <si>
+    <t>select * from "ETL_AUTO_NOV"."TEST_SCHEMA"."CONTACT_INFO"</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713BC9B6-5492-CA4F-A877-3577F5CB424B}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -554,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -563,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -575,19 +581,19 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -595,28 +601,28 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -625,106 +631,161 @@
         <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/configs/test_cases.xlsx
+++ b/configs/test_cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_framework_nov/configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B03B567-C8AE-1A48-8A8C-5BC1D68045EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6158CBEA-D5DB-C34D-BFF0-2C734C6ADC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="740" windowWidth="28800" windowHeight="16020" xr2:uid="{65144EEF-1F90-C947-8815-970505B648B2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Identifier</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>select * from "ETL_AUTO_NOV"."TEST_SCHEMA"."CONTACT_INFO"</t>
+  </si>
+  <si>
+    <t>IDENTIFIER</t>
+  </si>
+  <si>
+    <t>SURNAME,GIVEN_NAME,MIDDLE_INITIAL</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -779,7 +785,10 @@
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
